--- a/scrapping/Stock Data Yahoo/data_US.xlsx
+++ b/scrapping/Stock Data Yahoo/data_US.xlsx
@@ -531,10 +531,10 @@
         <v>42430</v>
       </c>
       <c r="B2" t="n">
-        <v>0.36</v>
+        <v>0.0036</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="n">
         <v>97.673</v>
@@ -584,10 +584,10 @@
         <v>42461</v>
       </c>
       <c r="B3" t="n">
-        <v>0.37</v>
+        <v>0.0037</v>
       </c>
       <c r="C3" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="D3" t="n">
         <v>97.99299999999999</v>
@@ -637,10 +637,10 @@
         <v>42491</v>
       </c>
       <c r="B4" t="n">
-        <v>0.37</v>
+        <v>0.0037</v>
       </c>
       <c r="C4" t="n">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="D4" t="n">
         <v>98.15300000000001</v>
@@ -686,10 +686,10 @@
         <v>42522</v>
       </c>
       <c r="B5" t="n">
-        <v>0.38</v>
+        <v>0.0038</v>
       </c>
       <c r="C5" t="n">
-        <v>4.9</v>
+        <v>0.049</v>
       </c>
       <c r="D5" t="n">
         <v>98.325</v>
@@ -739,10 +739,10 @@
         <v>42552</v>
       </c>
       <c r="B6" t="n">
-        <v>0.39</v>
+        <v>0.0039</v>
       </c>
       <c r="C6" t="n">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="D6" t="n">
         <v>98.342</v>
@@ -792,10 +792,10 @@
         <v>42583</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="C7" t="n">
-        <v>4.9</v>
+        <v>0.049</v>
       </c>
       <c r="D7" t="n">
         <v>98.479</v>
@@ -845,10 +845,10 @@
         <v>42614</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D8" t="n">
         <v>98.666</v>
@@ -898,10 +898,10 @@
         <v>42644</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4</v>
+        <v>0.004</v>
       </c>
       <c r="C9" t="n">
-        <v>4.9</v>
+        <v>0.049</v>
       </c>
       <c r="D9" t="n">
         <v>98.86799999999999</v>
@@ -947,10 +947,10 @@
         <v>42675</v>
       </c>
       <c r="B10" t="n">
-        <v>0.41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>4.7</v>
+        <v>0.047</v>
       </c>
       <c r="D10" t="n">
         <v>98.901</v>
@@ -1000,10 +1000,10 @@
         <v>42705</v>
       </c>
       <c r="B11" t="n">
-        <v>0.54</v>
+        <v>0.0054</v>
       </c>
       <c r="C11" t="n">
-        <v>4.7</v>
+        <v>0.047</v>
       </c>
       <c r="D11" t="n">
         <v>99.071</v>
@@ -1053,10 +1053,10 @@
         <v>42736</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>4.7</v>
+        <v>0.047</v>
       </c>
       <c r="D12" t="n">
         <v>99.45099999999999</v>
@@ -1102,10 +1102,10 @@
         <v>42767</v>
       </c>
       <c r="B13" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6</v>
+        <v>0.046</v>
       </c>
       <c r="D13" t="n">
         <v>99.586</v>
@@ -1155,10 +1155,10 @@
         <v>42795</v>
       </c>
       <c r="B14" t="n">
-        <v>0.79</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="D14" t="n">
         <v>99.535</v>
@@ -1208,10 +1208,10 @@
         <v>42826</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="D15" t="n">
         <v>99.72499999999999</v>
@@ -1257,10 +1257,10 @@
         <v>42856</v>
       </c>
       <c r="B16" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="C16" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="D16" t="n">
         <v>99.682</v>
@@ -1310,10 +1310,10 @@
         <v>42887</v>
       </c>
       <c r="B17" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="C17" t="n">
-        <v>4.3</v>
+        <v>0.043</v>
       </c>
       <c r="D17" t="n">
         <v>99.76600000000001</v>
@@ -1363,10 +1363,10 @@
         <v>42917</v>
       </c>
       <c r="B18" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="C18" t="n">
-        <v>4.3</v>
+        <v>0.043</v>
       </c>
       <c r="D18" t="n">
         <v>99.803</v>
@@ -1412,10 +1412,10 @@
         <v>42948</v>
       </c>
       <c r="B19" t="n">
-        <v>1.16</v>
+        <v>0.0116</v>
       </c>
       <c r="C19" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="D19" t="n">
         <v>100.027</v>
@@ -1465,10 +1465,10 @@
         <v>42979</v>
       </c>
       <c r="B20" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="C20" t="n">
-        <v>4.3</v>
+        <v>0.043</v>
       </c>
       <c r="D20" t="n">
         <v>100.4</v>
@@ -1518,10 +1518,10 @@
         <v>43009</v>
       </c>
       <c r="B21" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="C21" t="n">
-        <v>4.2</v>
+        <v>0.042</v>
       </c>
       <c r="D21" t="n">
         <v>100.531</v>
@@ -1567,10 +1567,10 @@
         <v>43040</v>
       </c>
       <c r="B22" t="n">
-        <v>1.16</v>
+        <v>0.0116</v>
       </c>
       <c r="C22" t="n">
-        <v>4.2</v>
+        <v>0.042</v>
       </c>
       <c r="D22" t="n">
         <v>100.675</v>
@@ -1620,10 +1620,10 @@
         <v>43070</v>
       </c>
       <c r="B23" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="C23" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="D23" t="n">
         <v>100.821</v>
@@ -1673,10 +1673,10 @@
         <v>43101</v>
       </c>
       <c r="B24" t="n">
-        <v>1.41</v>
+        <v>0.0141</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D24" t="n">
         <v>101.199</v>
@@ -1722,10 +1722,10 @@
         <v>43132</v>
       </c>
       <c r="B25" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="C25" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="D25" t="n">
         <v>101.416</v>
@@ -1775,10 +1775,10 @@
         <v>43160</v>
       </c>
       <c r="B26" t="n">
-        <v>1.51</v>
+        <v>0.0151</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D26" t="n">
         <v>101.524</v>
@@ -1828,10 +1828,10 @@
         <v>43191</v>
       </c>
       <c r="B27" t="n">
-        <v>1.69</v>
+        <v>0.0169</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D27" t="n">
         <v>101.766</v>
@@ -1877,10 +1877,10 @@
         <v>43221</v>
       </c>
       <c r="B28" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D28" t="n">
         <v>101.941</v>
@@ -1930,10 +1930,10 @@
         <v>43252</v>
       </c>
       <c r="B29" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D29" t="n">
         <v>102.029</v>
@@ -1983,10 +1983,10 @@
         <v>43282</v>
       </c>
       <c r="B30" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="C30" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D30" t="n">
         <v>102.137</v>
@@ -2032,10 +2032,10 @@
         <v>43313</v>
       </c>
       <c r="B31" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="C31" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D31" t="n">
         <v>102.208</v>
@@ -2085,10 +2085,10 @@
         <v>43344</v>
       </c>
       <c r="B32" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="C32" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D32" t="n">
         <v>102.418</v>
@@ -2134,10 +2134,10 @@
         <v>43374</v>
       </c>
       <c r="B33" t="n">
-        <v>2.19</v>
+        <v>0.0219</v>
       </c>
       <c r="C33" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D33" t="n">
         <v>102.595</v>
@@ -2187,10 +2187,10 @@
         <v>43405</v>
       </c>
       <c r="B34" t="n">
-        <v>2.2</v>
+        <v>0.022</v>
       </c>
       <c r="C34" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D34" t="n">
         <v>102.63</v>
@@ -2240,10 +2240,10 @@
         <v>43435</v>
       </c>
       <c r="B35" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="C35" t="n">
-        <v>3.9</v>
+        <v>0.039</v>
       </c>
       <c r="D35" t="n">
         <v>102.701</v>
@@ -2289,10 +2289,10 @@
         <v>43466</v>
       </c>
       <c r="B36" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D36" t="n">
         <v>102.648</v>
@@ -2338,10 +2338,10 @@
         <v>43497</v>
       </c>
       <c r="B37" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="C37" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D37" t="n">
         <v>102.836</v>
@@ -2391,10 +2391,10 @@
         <v>43525</v>
       </c>
       <c r="B38" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="C38" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D38" t="n">
         <v>103.069</v>
@@ -2444,10 +2444,10 @@
         <v>43556</v>
       </c>
       <c r="B39" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="C39" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D39" t="n">
         <v>103.36</v>
@@ -2497,10 +2497,10 @@
         <v>43586</v>
       </c>
       <c r="B40" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="C40" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D40" t="n">
         <v>103.435</v>
@@ -2550,10 +2550,10 @@
         <v>43617</v>
       </c>
       <c r="B41" t="n">
-        <v>2.38</v>
+        <v>0.0238</v>
       </c>
       <c r="C41" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D41" t="n">
         <v>103.484</v>
@@ -2599,10 +2599,10 @@
         <v>43647</v>
       </c>
       <c r="B42" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="C42" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D42" t="n">
         <v>103.622</v>
@@ -2652,10 +2652,10 @@
         <v>43678</v>
       </c>
       <c r="B43" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="C43" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D43" t="n">
         <v>103.67</v>
@@ -2705,10 +2705,10 @@
         <v>43709</v>
       </c>
       <c r="B44" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="C44" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D44" t="n">
         <v>103.733</v>
@@ -2754,10 +2754,10 @@
         <v>43739</v>
       </c>
       <c r="B45" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="C45" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D45" t="n">
         <v>103.917</v>
@@ -2807,10 +2807,10 @@
         <v>43770</v>
       </c>
       <c r="B46" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="C46" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D46" t="n">
         <v>104.024</v>
@@ -2860,10 +2860,10 @@
         <v>43800</v>
       </c>
       <c r="B47" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="C47" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D47" t="n">
         <v>104.307</v>
@@ -2909,10 +2909,10 @@
         <v>43831</v>
       </c>
       <c r="B48" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="C48" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D48" t="n">
         <v>104.419</v>
@@ -2958,10 +2958,10 @@
         <v>43862</v>
       </c>
       <c r="B49" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="C49" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D49" t="n">
         <v>104.541</v>
@@ -3007,10 +3007,10 @@
         <v>43891</v>
       </c>
       <c r="B50" t="n">
-        <v>0.65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="D50" t="n">
         <v>104.252</v>
@@ -3056,10 +3056,10 @@
         <v>43922</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="C51" t="n">
-        <v>14.8</v>
+        <v>0.148</v>
       </c>
       <c r="D51" t="n">
         <v>103.817</v>
@@ -3109,10 +3109,10 @@
         <v>43952</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="C52" t="n">
-        <v>13.2</v>
+        <v>0.132</v>
       </c>
       <c r="D52" t="n">
         <v>103.914</v>
@@ -3162,10 +3162,10 @@
         <v>43983</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="D53" t="n">
         <v>104.233</v>
@@ -3215,10 +3215,10 @@
         <v>44013</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C54" t="n">
-        <v>10.2</v>
+        <v>0.102</v>
       </c>
       <c r="D54" t="n">
         <v>104.564</v>
@@ -3268,10 +3268,10 @@
         <v>44044</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="C55" t="n">
-        <v>8.4</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D55" t="n">
         <v>104.887</v>
@@ -3317,10 +3317,10 @@
         <v>44075</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C56" t="n">
-        <v>7.8</v>
+        <v>0.078</v>
       </c>
       <c r="D56" t="n">
         <v>105.046</v>
@@ -3370,10 +3370,10 @@
         <v>44105</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C57" t="n">
-        <v>6.8</v>
+        <v>0.068</v>
       </c>
       <c r="D57" t="n">
         <v>105.106</v>
@@ -3423,10 +3423,10 @@
         <v>44136</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C58" t="n">
-        <v>6.7</v>
+        <v>0.067</v>
       </c>
       <c r="D58" t="n">
         <v>105.225</v>
@@ -3472,10 +3472,10 @@
         <v>44166</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C59" t="n">
-        <v>6.7</v>
+        <v>0.067</v>
       </c>
       <c r="D59" t="n">
         <v>105.69</v>
@@ -3525,10 +3525,10 @@
         <v>44197</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C60" t="n">
-        <v>6.4</v>
+        <v>0.064</v>
       </c>
       <c r="D60" t="n">
         <v>106.083</v>
@@ -3574,10 +3574,10 @@
         <v>44228</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C61" t="n">
-        <v>6.2</v>
+        <v>0.062</v>
       </c>
       <c r="D61" t="n">
         <v>106.471</v>
@@ -3627,10 +3627,10 @@
         <v>44256</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>6.1</v>
+        <v>0.061</v>
       </c>
       <c r="D62" t="n">
         <v>107.032</v>
@@ -3680,10 +3680,10 @@
         <v>44287</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>6.1</v>
+        <v>0.061</v>
       </c>
       <c r="D63" t="n">
         <v>107.632</v>
@@ -3733,10 +3733,10 @@
         <v>44317</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>5.8</v>
+        <v>0.058</v>
       </c>
       <c r="D64" t="n">
         <v>108.184</v>
@@ -3782,10 +3782,10 @@
         <v>44348</v>
       </c>
       <c r="B65" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C65" t="n">
-        <v>5.9</v>
+        <v>0.059</v>
       </c>
       <c r="D65" t="n">
         <v>108.748</v>
@@ -3835,10 +3835,10 @@
         <v>44378</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="C66" t="n">
-        <v>5.4</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="D66" t="n">
         <v>109.275</v>
@@ -3888,10 +3888,10 @@
         <v>44409</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="C67" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="D67" t="n">
         <v>109.72</v>
@@ -3937,10 +3937,10 @@
         <v>44440</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C68" t="n">
-        <v>4.7</v>
+        <v>0.047</v>
       </c>
       <c r="D68" t="n">
         <v>110.047</v>
@@ -3990,10 +3990,10 @@
         <v>44470</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C69" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="D69" t="n">
         <v>110.741</v>
@@ -4043,10 +4043,10 @@
         <v>44501</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C70" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="D70" t="n">
         <v>111.51</v>
@@ -4096,10 +4096,10 @@
         <v>44531</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C71" t="n">
-        <v>3.9</v>
+        <v>0.039</v>
       </c>
       <c r="D71" t="n">
         <v>112.221</v>
@@ -4149,10 +4149,10 @@
         <v>44562</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D72" t="n">
         <v>112.776</v>
@@ -4198,10 +4198,10 @@
         <v>44593</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="C73" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D73" t="n">
         <v>113.489</v>
@@ -4251,10 +4251,10 @@
         <v>44621</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2</v>
+        <v>0.002</v>
       </c>
       <c r="C74" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D74" t="n">
         <v>114.489</v>
@@ -4304,10 +4304,10 @@
         <v>44652</v>
       </c>
       <c r="B75" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="C75" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D75" t="n">
         <v>114.845</v>
@@ -4357,10 +4357,10 @@
         <v>44682</v>
       </c>
       <c r="B76" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="C76" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D76" t="n">
         <v>115.542</v>
@@ -4406,10 +4406,10 @@
         <v>44713</v>
       </c>
       <c r="B77" t="n">
-        <v>1.21</v>
+        <v>0.0121</v>
       </c>
       <c r="C77" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D77" t="n">
         <v>116.631</v>
@@ -4459,10 +4459,10 @@
         <v>44743</v>
       </c>
       <c r="B78" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="C78" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D78" t="n">
         <v>116.662</v>
@@ -4512,10 +4512,10 @@
         <v>44774</v>
       </c>
       <c r="B79" t="n">
-        <v>2.33</v>
+        <v>0.0233</v>
       </c>
       <c r="C79" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D79" t="n">
         <v>117.002</v>
@@ -4565,10 +4565,10 @@
         <v>44805</v>
       </c>
       <c r="B80" t="n">
-        <v>2.56</v>
+        <v>0.0256</v>
       </c>
       <c r="C80" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D80" t="n">
         <v>117.377</v>
@@ -4618,10 +4618,10 @@
         <v>44835</v>
       </c>
       <c r="B81" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="C81" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D81" t="n">
         <v>117.891</v>
@@ -4667,10 +4667,10 @@
         <v>44866</v>
       </c>
       <c r="B82" t="n">
-        <v>3.78</v>
+        <v>0.0378</v>
       </c>
       <c r="C82" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D82" t="n">
         <v>118.221</v>
@@ -4720,10 +4720,10 @@
         <v>44896</v>
       </c>
       <c r="B83" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D83" t="n">
         <v>118.403</v>
@@ -4773,10 +4773,10 @@
         <v>44927</v>
       </c>
       <c r="B84" t="n">
-        <v>4.33</v>
+        <v>0.0433</v>
       </c>
       <c r="C84" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="D84" t="n">
         <v>119.007</v>
@@ -4822,10 +4822,10 @@
         <v>44958</v>
       </c>
       <c r="B85" t="n">
-        <v>4.57</v>
+        <v>0.0457</v>
       </c>
       <c r="C85" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D85" t="n">
         <v>119.401</v>
@@ -4875,10 +4875,10 @@
         <v>44986</v>
       </c>
       <c r="B86" t="n">
-        <v>4.65</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D86" t="n">
         <v>119.553</v>
@@ -4928,10 +4928,10 @@
         <v>45017</v>
       </c>
       <c r="B87" t="n">
-        <v>4.83</v>
+        <v>0.0483</v>
       </c>
       <c r="C87" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="D87" t="n">
         <v>119.97</v>
@@ -4977,10 +4977,10 @@
         <v>45047</v>
       </c>
       <c r="B88" t="n">
-        <v>5.06</v>
+        <v>0.0506</v>
       </c>
       <c r="C88" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D88" t="n">
         <v>120.14</v>
@@ -5030,10 +5030,10 @@
         <v>45078</v>
       </c>
       <c r="B89" t="n">
-        <v>5.08</v>
+        <v>0.0508</v>
       </c>
       <c r="C89" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="D89" t="n">
         <v>120.435</v>
@@ -5083,10 +5083,10 @@
         <v>45108</v>
       </c>
       <c r="B90" t="n">
-        <v>5.12</v>
+        <v>0.0512</v>
       </c>
       <c r="C90" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="D90" t="n">
         <v>120.598</v>
@@ -5132,10 +5132,10 @@
         <v>45139</v>
       </c>
       <c r="B91" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C91" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D91" t="n">
         <v>120.965</v>
@@ -5185,10 +5185,10 @@
         <v>45170</v>
       </c>
       <c r="B92" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C92" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D92" t="n">
         <v>121.387</v>
@@ -5238,10 +5238,10 @@
         <v>45200</v>
       </c>
       <c r="B93" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C93" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D93" t="n">
         <v>121.421</v>
@@ -5287,10 +5287,10 @@
         <v>45231</v>
       </c>
       <c r="B94" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C94" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D94" t="n">
         <v>121.415</v>
@@ -5340,10 +5340,10 @@
         <v>45261</v>
       </c>
       <c r="B95" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C95" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D95" t="n">
         <v>121.602</v>
@@ -5393,10 +5393,10 @@
         <v>45292</v>
       </c>
       <c r="B96" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C96" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="D96" t="n">
         <v>122.115</v>
@@ -5442,10 +5442,10 @@
         <v>45323</v>
       </c>
       <c r="B97" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C97" t="n">
-        <v>3.9</v>
+        <v>0.039</v>
       </c>
       <c r="D97" t="n">
         <v>122.494</v>
@@ -5495,10 +5495,10 @@
         <v>45352</v>
       </c>
       <c r="B98" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C98" t="n">
-        <v>3.8</v>
+        <v>0.038</v>
       </c>
       <c r="D98" t="n">
         <v>122.912</v>
@@ -5548,10 +5548,10 @@
         <v>45383</v>
       </c>
       <c r="B99" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C99" t="n">
-        <v>3.9</v>
+        <v>0.039</v>
       </c>
       <c r="D99" t="n">
         <v>123.234</v>
@@ -5601,10 +5601,10 @@
         <v>45413</v>
       </c>
       <c r="B100" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D100" t="n">
         <v>123.224</v>
@@ -5654,10 +5654,10 @@
         <v>45444</v>
       </c>
       <c r="B101" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C101" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="D101" t="n">
         <v>123.369</v>
@@ -5703,10 +5703,10 @@
         <v>45474</v>
       </c>
       <c r="B102" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C102" t="n">
-        <v>4.3</v>
+        <v>0.043</v>
       </c>
       <c r="D102" t="n">
         <v>123.558</v>
@@ -5756,10 +5756,10 @@
         <v>45505</v>
       </c>
       <c r="B103" t="n">
-        <v>5.33</v>
+        <v>0.0533</v>
       </c>
       <c r="C103" t="n">
-        <v>4.2</v>
+        <v>0.042</v>
       </c>
       <c r="D103" t="n">
         <v>123.67</v>
@@ -5809,28 +5809,32 @@
         <v>45536</v>
       </c>
       <c r="B104" t="n">
-        <v>5.13</v>
+        <v>0.0513</v>
       </c>
       <c r="C104" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>314.686</v>
+      </c>
+      <c r="G104" t="n">
+        <v>320.767</v>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2.223646871989793</v>
+        <v>2.407513472703116</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>0.1798669939290898</v>
       </c>
       <c r="L104" t="n">
-        <v>2.937124167857741</v>
+        <v>3.258714155110032</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.3124140001501186</v>
       </c>
       <c r="N104" t="n">
         <v>1.880761531300723</v>

--- a/scrapping/Stock Data Yahoo/data_US.xlsx
+++ b/scrapping/Stock Data Yahoo/data_US.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,10 +5709,10 @@
         <v>0.043</v>
       </c>
       <c r="D102" t="n">
-        <v>123.558</v>
+        <v>123.575</v>
       </c>
       <c r="E102" t="n">
-        <v>122.703</v>
+        <v>122.722</v>
       </c>
       <c r="F102" t="n">
         <v>313.534</v>
@@ -5739,16 +5739,16 @@
         <v>0.1652290275360846</v>
       </c>
       <c r="N102" t="n">
-        <v>2.454435396938592</v>
+        <v>2.468531816448039</v>
       </c>
       <c r="O102" t="n">
-        <v>0.1531989397660638</v>
+        <v>0.1669787385810029</v>
       </c>
       <c r="P102" t="n">
-        <v>2.649411056083517</v>
+        <v>2.665305849283883</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.1575381601501835</v>
+        <v>0.1730470981960552</v>
       </c>
     </row>
     <row r="103">
@@ -5762,10 +5762,10 @@
         <v>0.042</v>
       </c>
       <c r="D103" t="n">
-        <v>123.67</v>
+        <v>123.727</v>
       </c>
       <c r="E103" t="n">
-        <v>122.863</v>
+        <v>122.926</v>
       </c>
       <c r="F103" t="n">
         <v>314.121</v>
@@ -5792,16 +5792,16 @@
         <v>0.280990491482469</v>
       </c>
       <c r="N103" t="n">
-        <v>2.236184020171117</v>
+        <v>2.283305088248677</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0906456886644369</v>
+        <v>0.1230022253692065</v>
       </c>
       <c r="P103" t="n">
-        <v>2.678466964181259</v>
+        <v>2.731117016831308</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.1303961598330794</v>
+        <v>0.1662293639282275</v>
       </c>
     </row>
     <row r="104">
@@ -5814,8 +5814,12 @@
       <c r="C104" t="n">
         <v>0.04099999999999999</v>
       </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>123.939</v>
+      </c>
+      <c r="E104" t="n">
+        <v>123.234</v>
+      </c>
       <c r="F104" t="n">
         <v>314.686</v>
       </c>
@@ -5837,16 +5841,122 @@
         <v>0.3124140001501186</v>
       </c>
       <c r="N104" t="n">
-        <v>1.880761531300723</v>
+        <v>2.102366810284462</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>0.1713449772482889</v>
       </c>
       <c r="P104" t="n">
-        <v>2.351716094635115</v>
+        <v>2.660779740086627</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>0.2505572458226801</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.04099999999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>124.223</v>
+      </c>
+      <c r="E105" t="n">
+        <v>123.557</v>
+      </c>
+      <c r="F105" t="n">
+        <v>315.454</v>
+      </c>
+      <c r="G105" t="n">
+        <v>321.666</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.576325638716104</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.2440528018405663</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3.300041748289928</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.2802657380590823</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.30767330198236</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.229144982612417</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2.792845257903487</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.2621029910576667</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D106" t="n">
+        <v>124.382</v>
+      </c>
+      <c r="E106" t="n">
+        <v>123.699</v>
+      </c>
+      <c r="F106" t="n">
+        <v>316.441</v>
+      </c>
+      <c r="G106" t="n">
+        <v>322.657</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.732579279536651</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.312882385387403</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.300154634719488</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.3080835400695037</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2.443684882428032</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.1279956207787647</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2.817744308405845</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.114926713986252</v>
       </c>
     </row>
   </sheetData>
